--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>597240.3716651291</v>
+        <v>594853.3296764939</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12866823.29189678</v>
+        <v>12923618.62134007</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11733121.77112018</v>
+        <v>11726874.40504389</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>311.0981617445617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>14.88363178744328</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>186.8460807091488</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>61.058014877892</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,13 +871,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>194.7396974517609</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.8321196145404</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>315.9968882787545</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541850867</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>84.15866626938994</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>64.83435391452868</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>4.443625914095164</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>223.0977753814039</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>89.28266377778704</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.391515483393</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.32106446353023</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>25.01771520349821</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>101.3387697278189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>137.2449652978931</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>43.61939039064247</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>107.4021082756243</v>
+        <v>103.906945720265</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>102.1557845699798</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272898</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>14.75529838241756</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.15578456998</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890385</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.831980181936</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465709</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699797</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4021082756257</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936146</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>4.713266813875332e-12</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>93.38904885909375</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>148.8796904206634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.807527238423</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C2" t="n">
-        <v>1221.845010298012</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D2" t="n">
-        <v>1221.845010298012</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E2" t="n">
-        <v>907.6044428792625</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F2" t="n">
-        <v>496.6185380896549</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G2" t="n">
-        <v>81.54608793465138</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539437</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X2" t="n">
-        <v>2367.546699278357</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.407367302545</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
@@ -4425,22 +4425,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199866</v>
@@ -4452,7 +4452,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450112</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>507.4345062145372</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U4" t="n">
-        <v>310.7277411117484</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V4" t="n">
-        <v>310.7277411117484</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="W4" t="n">
-        <v>310.7277411117484</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="X4" t="n">
-        <v>310.7277411117484</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="Y4" t="n">
-        <v>310.7277411117484</v>
+        <v>128.1868789351046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912086</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810547</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939505</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520486</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520486</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520486</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259406</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.732315283594</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811061</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999791</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387279</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332724</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601574</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927755</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125854</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619334</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431605</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199862</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471661</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266128</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501174</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>541.9536817013552</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>541.9536817013552</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>541.9536817013552</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962276</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.645724237293</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596501</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588477</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886951</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068846</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596431</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757116</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757116</v>
+        <v>765.5673021974011</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757116</v>
+        <v>765.5673021974011</v>
       </c>
       <c r="U7" t="n">
-        <v>541.9536817013552</v>
+        <v>765.5673021974011</v>
       </c>
       <c r="V7" t="n">
-        <v>541.9536817013552</v>
+        <v>765.5673021974011</v>
       </c>
       <c r="W7" t="n">
-        <v>541.9536817013552</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="X7" t="n">
-        <v>541.9536817013552</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y7" t="n">
-        <v>541.9536817013552</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528559</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528559</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389511</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794322</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2751.318417769984</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.318417769984</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.852659508904</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228021</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181842</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181842</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181842</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181842</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181842</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181842</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181842</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
         <v>1589.996253358682</v>
@@ -5039,10 +5039,10 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L11" t="n">
         <v>1461.457663018651</v>
@@ -5054,10 +5054,10 @@
         <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
         <v>4514.49737412729</v>
@@ -5066,25 +5066,25 @@
         <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K12" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.700680385037</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>1653.719034637164</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N12" t="n">
-        <v>1653.719034637164</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O12" t="n">
-        <v>2200.595509637359</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>848.5402036081963</v>
+        <v>118.0820426235535</v>
       </c>
       <c r="C13" t="n">
-        <v>679.6040206802894</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="D13" t="n">
-        <v>529.4873812679537</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="E13" t="n">
-        <v>381.5742876855605</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="F13" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G13" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H13" t="n">
         <v>92.81162322608056</v>
@@ -5221,28 +5221,28 @@
         <v>1421.96823213986</v>
       </c>
       <c r="R13" t="n">
-        <v>1421.96823213986</v>
+        <v>1354.108887098362</v>
       </c>
       <c r="S13" t="n">
-        <v>1421.96823213986</v>
+        <v>1170.938696837292</v>
       </c>
       <c r="T13" t="n">
-        <v>1421.96823213986</v>
+        <v>951.2599145516741</v>
       </c>
       <c r="U13" t="n">
-        <v>1421.96823213986</v>
+        <v>662.183700866401</v>
       </c>
       <c r="V13" t="n">
-        <v>1421.96823213986</v>
+        <v>407.4992126605141</v>
       </c>
       <c r="W13" t="n">
-        <v>1132.5510621029</v>
+        <v>118.0820426235535</v>
       </c>
       <c r="X13" t="n">
-        <v>1132.5510621029</v>
+        <v>118.0820426235535</v>
       </c>
       <c r="Y13" t="n">
-        <v>1030.188668438436</v>
+        <v>118.0820426235535</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>417.9651836029407</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797359</v>
       </c>
       <c r="C16" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797359</v>
       </c>
       <c r="D16" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797359</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>140.7528025687997</v>
@@ -5458,28 +5458,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562356</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.555541309953</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T16" t="n">
-        <v>1440.555541309953</v>
+        <v>971.0535382402015</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.480314654151</v>
+        <v>681.9783115843993</v>
       </c>
       <c r="V16" t="n">
-        <v>1151.480314654151</v>
+        <v>427.2938233785125</v>
       </c>
       <c r="W16" t="n">
-        <v>1012.849036575471</v>
+        <v>137.8766533415518</v>
       </c>
       <c r="X16" t="n">
-        <v>784.859485677454</v>
+        <v>137.8766533415518</v>
       </c>
       <c r="Y16" t="n">
-        <v>564.0669065339239</v>
+        <v>93.81666304797359</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>1455.331441832957</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>1509.840147765882</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>1442.794444018285</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>1259.939609673189</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="20">
@@ -5747,19 +5747,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5786,10 +5786,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297696</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297696</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5981,55 +5981,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171328</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C25" t="n">
-        <v>564.5188827892259</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888042</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>197.0043242297698</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038366</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797767</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.06254548757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.88566058892</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.896109690903</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473725</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,67 +6443,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297695</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524073</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868271</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625424</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>240.706610545887</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1339.368993063876</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1111.379442165859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,19 +6932,19 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6953,10 +6953,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516144</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7154,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,16 +7491,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2046.67901981013</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1757.603793154328</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1502.919304948441</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1213.50213491148</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>985.5125840134625</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,13 +7658,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -9319,28 +9319,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>69.98445096558538</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>279.7241325998772</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.29152613728996</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.29152613728939</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>142.2291058951296</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440902</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.2458836242759</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>149.2780330386979</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>174.9652629614523</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>110.0033420516639</v>
+        <v>113.4985046070232</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>63.36835372228907</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>133.8601746357948</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345295126</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345295159</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0033420516626</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>45.44677382459778</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>193.1339494774973</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.52575990662487</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>998469.6611366669</v>
+        <v>1026302.212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>973459.4105421111</v>
+        <v>973459.4105421108</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>979042.9456070801</v>
+        <v>979042.9456070797</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1023571.904772804</v>
+        <v>982108.4745127253</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1023571.904772804</v>
+        <v>1023571.904772803</v>
       </c>
     </row>
     <row r="10">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>399387.8644546664</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="C2" t="n">
         <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
-        <v>389383.7642168441</v>
+        <v>389383.7642168442</v>
       </c>
       <c r="F2" t="n">
         <v>391617.1782428318</v>
       </c>
       <c r="G2" t="n">
-        <v>403573.2998450032</v>
+        <v>392440.2793675283</v>
       </c>
       <c r="H2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.299845003</v>
       </c>
       <c r="I2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="J2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="L2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="M2" t="n">
         <v>403573.2998450031</v>
@@ -26350,7 +26350,7 @@
         <v>403573.2998450032</v>
       </c>
       <c r="O2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="P2" t="n">
         <v>403573.2998450031</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189862</v>
+        <v>313680.0588189856</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504134</v>
+        <v>11452.26311504127</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832936</v>
+        <v>81924.2786383293</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.01735570473</v>
+        <v>3077.017355704674</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80888.02102371422</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040527</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>754.8555874581932</v>
@@ -26430,13 +26430,13 @@
         <v>761.3882086835454</v>
       </c>
       <c r="G4" t="n">
+        <v>1771.683742822735</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687966</v>
@@ -26445,19 +26445,19 @@
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="O4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1118178.842858034</v>
+        <v>-1119754.545460897</v>
       </c>
       <c r="C6" t="n">
-        <v>208990.2002666964</v>
+        <v>208990.2002666956</v>
       </c>
       <c r="D6" t="n">
-        <v>208990.2002666956</v>
+        <v>208990.2002666957</v>
       </c>
       <c r="E6" t="n">
-        <v>-25193.27870343869</v>
+        <v>-25298.96430701447</v>
       </c>
       <c r="F6" t="n">
-        <v>278280.9970951998</v>
+        <v>278186.4785617534</v>
       </c>
       <c r="G6" t="n">
-        <v>287014.1300142164</v>
+        <v>289455.6627729756</v>
       </c>
       <c r="H6" t="n">
-        <v>287014.1300142164</v>
+        <v>286979.3920887805</v>
       </c>
       <c r="I6" t="n">
-        <v>287014.1300142164</v>
+        <v>286979.3920887805</v>
       </c>
       <c r="J6" t="n">
-        <v>69482.92761693888</v>
+        <v>69448.18969150318</v>
       </c>
       <c r="K6" t="n">
-        <v>287014.1300142164</v>
+        <v>286979.3920887804</v>
       </c>
       <c r="L6" t="n">
-        <v>287014.1300142164</v>
+        <v>286979.3920887805</v>
       </c>
       <c r="M6" t="n">
-        <v>205089.8513758869</v>
+        <v>205055.1134504512</v>
       </c>
       <c r="N6" t="n">
-        <v>283937.1126585116</v>
+        <v>283902.374733076</v>
       </c>
       <c r="O6" t="n">
-        <v>287014.1300142162</v>
+        <v>286979.3920887806</v>
       </c>
       <c r="P6" t="n">
-        <v>287014.1300142162</v>
+        <v>286979.3920887806</v>
       </c>
     </row>
   </sheetData>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>268.264348123088</v>
+        <v>268.2643481230875</v>
       </c>
       <c r="F3" t="n">
         <v>9.934451625288148</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237148</v>
+        <v>328.7438349237141</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237145</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237148</v>
+        <v>328.7438349237141</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>70.83220832770013</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>140.9061777609861</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>118.7739653040453</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>91.47214075385193</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>115.9017220489401</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>70.24105037729908</v>
       </c>
     </row>
     <row r="6">
@@ -27707,10 +27707,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="H6" t="n">
-        <v>2.486899575160351e-12</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>62.27529637717923</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>124.9346714169132</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>323.3086325560398</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>126.1431933360091</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>196.9291744278258</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.302797828232</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -29676,7 +29676,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29913,7 +29913,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026452</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
         <v>275.9770021735818</v>
@@ -31847,22 +31847,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>197.8673674492839</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>489.7119024980487</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -32072,19 +32072,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334973</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,16 +32336,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>430.1367711736326</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.9421752903428</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996669</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286435</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.123718484038</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230781</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567571</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106919</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014208</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597851</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J12" t="n">
         <v>149.1393755069151</v>
@@ -35495,22 +35495,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>55.73333352726556</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>355.7374950837184</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>174.4792836591384</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -35741,13 +35741,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,16 +35966,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>230.6096609581692</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>291.5823913937584</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096372</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
